--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H2">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I2">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J2">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>312.04707837072</v>
+        <v>149.1281617450844</v>
       </c>
       <c r="R2">
-        <v>2808.42370533648</v>
+        <v>1342.15345570576</v>
       </c>
       <c r="S2">
-        <v>0.0361069118473312</v>
+        <v>0.01704790036734149</v>
       </c>
       <c r="T2">
-        <v>0.0361069118473312</v>
+        <v>0.01704790036734149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H3">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I3">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J3">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
-        <v>73.59184284836266</v>
+        <v>44.50073957283556</v>
       </c>
       <c r="R3">
-        <v>662.326585635264</v>
+        <v>400.50665615552</v>
       </c>
       <c r="S3">
-        <v>0.008515299025654361</v>
+        <v>0.005087195910102591</v>
       </c>
       <c r="T3">
-        <v>0.008515299025654361</v>
+        <v>0.005087195910102592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H4">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I4">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J4">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>20.285945921956</v>
+        <v>15.71185356755889</v>
       </c>
       <c r="R4">
-        <v>182.573513297604</v>
+        <v>141.40668210803</v>
       </c>
       <c r="S4">
-        <v>0.002347283188704009</v>
+        <v>0.001796133681737896</v>
       </c>
       <c r="T4">
-        <v>0.002347283188704008</v>
+        <v>0.001796133681737896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N5">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O5">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P5">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q5">
-        <v>4030.15827045104</v>
+        <v>3185.107504608246</v>
       </c>
       <c r="R5">
-        <v>36271.42443405937</v>
+        <v>28665.96754147422</v>
       </c>
       <c r="S5">
-        <v>0.4663288955043221</v>
+        <v>0.3641122827668924</v>
       </c>
       <c r="T5">
-        <v>0.4663288955043222</v>
+        <v>0.3641122827668925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q6">
-        <v>950.4552186215609</v>
+        <v>950.4552186215608</v>
       </c>
       <c r="R6">
-        <v>8554.096967594047</v>
+        <v>8554.096967594045</v>
       </c>
       <c r="S6">
-        <v>0.1099770040238413</v>
+        <v>0.1086532931209704</v>
       </c>
       <c r="T6">
-        <v>0.1099770040238413</v>
+        <v>0.1086532931209704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N7">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q7">
-        <v>261.9975586958253</v>
+        <v>335.5767423384552</v>
       </c>
       <c r="R7">
-        <v>2357.978028262428</v>
+        <v>3020.190681046096</v>
       </c>
       <c r="S7">
-        <v>0.03031569084203222</v>
+        <v>0.03836216313563982</v>
       </c>
       <c r="T7">
-        <v>0.03031569084203222</v>
+        <v>0.03836216313563983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H8">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N8">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O8">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P8">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q8">
-        <v>2301.40631028784</v>
+        <v>2897.29367833322</v>
       </c>
       <c r="R8">
-        <v>20712.65679259056</v>
+        <v>26075.64310499898</v>
       </c>
       <c r="S8">
-        <v>0.2662953141696581</v>
+        <v>0.3312102381278174</v>
       </c>
       <c r="T8">
-        <v>0.2662953141696581</v>
+        <v>0.3312102381278175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H9">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q9">
-        <v>542.7537806193565</v>
+        <v>864.5698433936425</v>
       </c>
       <c r="R9">
-        <v>4884.784025574208</v>
+        <v>7781.128590542782</v>
       </c>
       <c r="S9">
-        <v>0.062801943264301</v>
+        <v>0.0988351252929508</v>
       </c>
       <c r="T9">
-        <v>0.062801943264301</v>
+        <v>0.09883512529295083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H10">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N10">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q10">
-        <v>149.6126936957986</v>
+        <v>305.2532364343056</v>
       </c>
       <c r="R10">
-        <v>1346.514243262188</v>
+        <v>2747.279127908751</v>
       </c>
       <c r="S10">
-        <v>0.01731165813415561</v>
+        <v>0.03489566759654709</v>
       </c>
       <c r="T10">
-        <v>0.01731165813415561</v>
+        <v>0.03489566759654711</v>
       </c>
     </row>
   </sheetData>
